--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_SIN_ETIQUETA_PARAMETROS (Autoguardado).xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_LEER_SIN_ETIQUETA_PARAMETROS (Autoguardado).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\copiaGit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\documentacion_git\Documentacion-proyectoAdmin\Pruebas\DisenhoCasoPrueba\CP-Audata-Text-HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -23,12 +23,11 @@
     <definedName name="_Toc276125860" localSheetId="1">'Casos de Prueba'!$B$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Reglas de confidencialidad</t>
   </si>
@@ -240,15 +239,6 @@
     <t>SC AUDATA_REQ_FTML_ Leer_SinTag_Parametro</t>
   </si>
   <si>
-    <t>Cuando el usuario ingresa el archivo y las dos palabras que indican el inicio y fin de la conversión.</t>
-  </si>
-  <si>
-    <t>ArchivoBueno</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar el siguiente mensaje de error: "palabra no encontrada”.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> El usuario ingresa archivo HTML y dos palabras</t>
   </si>
   <si>
@@ -316,6 +306,18 @@
   </si>
   <si>
     <t>Palabra que se encuentra dentro del archivo HTML</t>
+  </si>
+  <si>
+    <t>ArchivoBueno1</t>
+  </si>
+  <si>
+    <t>Ley</t>
+  </si>
+  <si>
+    <t>Cuando el usuario ingresa el archivo y las dos palabras que indican el inicio y fin de la conversión, pero una de las palabras no existen en el archivo HTML.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el siguiente mensaje de error: "palabra  "Ley" no encontrada”.</t>
   </si>
 </sst>
 </file>
@@ -714,6 +716,96 @@
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -750,99 +842,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -851,27 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,7 +912,7 @@
         <xdr:cNvPr id="4101" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B33544D-4A71-46FF-8ED0-B6664B6DAB65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B33544D-4A71-46FF-8ED0-B6664B6DAB65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,13 +1416,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1428,11 +1430,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1440,11 +1442,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1452,11 +1454,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1474,11 +1476,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1500,25 +1502,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1540,87 +1542,87 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="31" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="49" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="52"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="49" t="s">
+      <c r="C27" s="25"/>
+      <c r="D27" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="47" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48" t="s">
+      <c r="C28" s="25"/>
+      <c r="D28" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="47" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1660,12 +1662,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1674,11 +1676,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1688,11 +1690,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1714,11 +1716,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1752,74 +1754,74 @@
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31" t="s">
+      <c r="G38" s="24"/>
+      <c r="H38" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="26">
+      <c r="B39" s="56">
         <v>1</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="47">
         <v>43559</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="32" t="s">
+      <c r="G39" s="39"/>
+      <c r="H39" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="34"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="28"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
@@ -1836,20 +1838,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F14:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="H39:J42"/>
@@ -1865,6 +1853,20 @@
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F14:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1876,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D21"/>
+    <sheetView topLeftCell="D9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1911,10 +1913,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1969,11 +1971,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2009,10 +2011,10 @@
         <v>43</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>6</v>
@@ -2027,26 +2029,26 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="59" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>49</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2055,13 +2057,13 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2069,13 +2071,13 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2084,13 +2086,13 @@
     </row>
     <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2099,26 +2101,26 @@
     </row>
     <row r="14" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="65" t="s">
+      <c r="B14" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="66" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>53</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2128,13 +2130,13 @@
     </row>
     <row r="15" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2142,13 +2144,13 @@
     </row>
     <row r="16" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="66"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2158,13 +2160,13 @@
     </row>
     <row r="17" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2174,26 +2176,26 @@
     </row>
     <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="H18" s="59" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>59</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2204,13 +2206,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2220,13 +2222,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2236,13 +2238,13 @@
     </row>
     <row r="21" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2252,26 +2254,26 @@
     </row>
     <row r="22" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="58" t="s">
+      <c r="B22" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="58" t="s">
+      <c r="F22" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="H22" s="59" t="s">
         <v>64</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>67</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2280,13 +2282,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2294,13 +2296,13 @@
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2308,13 +2310,13 @@
     </row>
     <row r="25" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2682,6 +2684,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="B3:C3"/>
@@ -2698,20 +2714,6 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="F22:F25"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="F14:F17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2724,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2742,12 +2744,12 @@
       <c r="A1" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2768,71 +2770,71 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="69">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="69" t="s">
+      <c r="C6" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="7" spans="1:6" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="69">
+      <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="69" t="s">
+      <c r="C7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="8" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="69">
+      <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="69" t="s">
+      <c r="C8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="69" t="s">
-        <v>68</v>
+      <c r="E8" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="69">
+      <c r="B9" s="17">
         <v>4</v>
       </c>
-      <c r="C9" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="69" t="s">
+      <c r="C9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="69" t="s">
-        <v>68</v>
+      <c r="E9" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
